--- a/Computer Science/Labs/Lab5/main/lab5.xlsx
+++ b/Computer Science/Labs/Lab5/main/lab5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Desktop/Mind &amp; Soul/ITMO-Hub/Computer-Science/лабораторные/Lab5/main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Desktop/Mind &amp; Soul/ITMO-Hub/Computer Science/Labs/Lab5/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E949FDB-3FA9-CB46-9E03-E935C2AEA9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68247703-94E3-8F4E-88A6-6BDD13A893B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="32360" windowHeight="20500" xr2:uid="{39CD0BB6-E4D7-494C-9DE5-4BF7799B13CE}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{39CD0BB6-E4D7-494C-9DE5-4BF7799B13CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t>X1=</t>
   </si>
@@ -440,17 +440,12 @@
   <si>
     <t>При сложении двух отрицательных чисел получен положительный результат — произошло переполнение.</t>
   </si>
-  <si>
-    <t>ФИО: Эллити Мохамед Э.А.А.
-Группа: P3131
-Вариант: 29</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,6 +522,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -548,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,20 +582,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75283898-61AF-0B46-9958-8E23F3F95BFD}">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AR74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,30 +935,30 @@
     <col min="7" max="25" width="3.6640625" customWidth="1"/>
     <col min="26" max="26" width="3.5" customWidth="1"/>
     <col min="28" max="28" width="3" customWidth="1"/>
-    <col min="31" max="31" width="2.5" customWidth="1"/>
+    <col min="31" max="31" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8">
         <v>2404</v>
       </c>
-      <c r="AG1" s="15"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG1" s="11"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8">
         <v>25449</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="G3" s="1">
         <v>15</v>
       </c>
@@ -1002,11 +1010,11 @@
       <c r="Y3" s="1">
         <v>0</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1096,11 +1104,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1190,19 +1198,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="11" t="s">
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1292,15 +1298,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="15"/>
-    </row>
-    <row r="7" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="12"/>
+    </row>
+    <row r="7" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1390,15 +1396,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="15"/>
-    </row>
-    <row r="8" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,14 +1494,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="12"/>
+    </row>
+    <row r="9" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1585,14 +1592,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="12"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+    </row>
+    <row r="10" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1686,8 +1699,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG10" s="12"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+    </row>
+    <row r="11" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1781,8 +1800,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG11" s="12"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+    </row>
+    <row r="12" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1876,8 +1901,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG12" s="12"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+    </row>
+    <row r="13" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1971,8 +2002,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG13" s="12"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+    </row>
+    <row r="14" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2066,8 +2103,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG14" s="12"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -2161,6 +2204,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AG15" s="12"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AG16" s="12"/>
     </row>
     <row r="17" spans="4:33" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
@@ -2244,9 +2291,7 @@
       </c>
     </row>
     <row r="18" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D18" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" t="s">
         <v>37</v>
       </c>
@@ -2326,9 +2371,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB18" s="15"/>
       <c r="AC18" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2381,9 @@
       </c>
     </row>
     <row r="19" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D19" s="13"/>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
@@ -2418,7 +2463,9 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AB19" s="13"/>
+      <c r="AB19" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="AC19" t="s">
         <v>41</v>
       </c>
@@ -2733,9 +2780,7 @@
       </c>
     </row>
     <row r="26" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D26" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D26" s="15"/>
       <c r="E26" t="s">
         <v>40</v>
       </c>
@@ -2815,9 +2860,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB26" s="15"/>
       <c r="AC26" t="s">
         <v>41</v>
       </c>
@@ -2827,7 +2870,9 @@
       </c>
     </row>
     <row r="27" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D27" s="13"/>
+      <c r="D27" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E27" t="s">
         <v>50</v>
       </c>
@@ -2907,7 +2952,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB27" s="14"/>
+      <c r="AB27" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="AC27" t="s">
         <v>51</v>
       </c>
@@ -3223,9 +3270,7 @@
       </c>
     </row>
     <row r="34" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D34" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D34" s="15"/>
       <c r="E34" t="s">
         <v>40</v>
       </c>
@@ -3305,9 +3350,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AB34" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB34" s="15"/>
       <c r="AC34" t="s">
         <v>41</v>
       </c>
@@ -3317,7 +3360,9 @@
       </c>
     </row>
     <row r="35" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D35" s="13"/>
+      <c r="D35" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E35" t="s">
         <v>52</v>
       </c>
@@ -3397,7 +3442,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="14"/>
+      <c r="AB35" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="AC35" t="s">
         <v>53</v>
       </c>
@@ -3709,9 +3756,7 @@
       </c>
     </row>
     <row r="42" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D42" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D42" s="15"/>
       <c r="E42" t="s">
         <v>52</v>
       </c>
@@ -3791,9 +3836,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB42" s="15"/>
       <c r="AC42" t="s">
         <v>53</v>
       </c>
@@ -3803,7 +3846,9 @@
       </c>
     </row>
     <row r="43" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D43" s="13"/>
+      <c r="D43" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E43" t="s">
         <v>54</v>
       </c>
@@ -3883,7 +3928,9 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AB43" s="14"/>
+      <c r="AB43" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="AC43" t="s">
         <v>55</v>
       </c>
@@ -4198,9 +4245,7 @@
       </c>
     </row>
     <row r="50" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D50" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D50" s="15"/>
       <c r="E50" t="s">
         <v>54</v>
       </c>
@@ -4292,7 +4337,9 @@
       </c>
     </row>
     <row r="51" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D51" s="13"/>
+      <c r="D51" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E51" t="s">
         <v>56</v>
       </c>
@@ -4684,9 +4731,7 @@
       </c>
     </row>
     <row r="58" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D58" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D58" s="15"/>
       <c r="E58" t="s">
         <v>37</v>
       </c>
@@ -4778,7 +4823,9 @@
       </c>
     </row>
     <row r="59" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D59" s="13"/>
+      <c r="D59" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E59" t="s">
         <v>54</v>
       </c>
@@ -5088,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>36</v>
       </c>
@@ -5169,7 +5216,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" ht="17" x14ac:dyDescent="0.25">
+      <c r="D66" s="15"/>
       <c r="E66" t="s">
         <v>58</v>
       </c>
@@ -5257,8 +5305,8 @@
         <v>-23045</v>
       </c>
     </row>
-    <row r="67" spans="4:33" ht="17" x14ac:dyDescent="0.25">
-      <c r="D67" s="10" t="s">
+    <row r="67" spans="1:44" ht="17" x14ac:dyDescent="0.25">
+      <c r="D67" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E67" t="s">
@@ -5355,7 +5403,7 @@
         <v>Результат корректный, перенос из старшего разряда не учитывается.</v>
       </c>
     </row>
-    <row r="68" spans="4:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" ht="17" x14ac:dyDescent="0.25">
       <c r="G68" s="2">
         <f>IF(G66&lt;&gt;".",MOD(H65+G66+G67,2),".")</f>
         <v>0</v>
@@ -5447,7 +5495,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="69" spans="4:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
         <v>43</v>
       </c>
@@ -5528,7 +5576,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="4:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>44</v>
       </c>
@@ -5572,21 +5620,147 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>11</v>
+      </c>
+      <c r="M73">
+        <v>12</v>
+      </c>
+      <c r="N73">
+        <v>13</v>
+      </c>
+      <c r="O73">
+        <v>14</v>
+      </c>
+      <c r="P73">
+        <v>15</v>
+      </c>
+      <c r="Q73">
+        <v>16</v>
+      </c>
+      <c r="R73">
+        <v>17</v>
+      </c>
+      <c r="S73">
+        <v>18</v>
+      </c>
+      <c r="T73">
+        <v>19</v>
+      </c>
+      <c r="U73">
+        <v>20</v>
+      </c>
+      <c r="V73">
+        <v>21</v>
+      </c>
+      <c r="W73">
+        <v>22</v>
+      </c>
+      <c r="X73">
+        <v>23</v>
+      </c>
+      <c r="Y73">
+        <v>24</v>
+      </c>
+      <c r="Z73">
+        <v>25</v>
+      </c>
+      <c r="AA73">
+        <v>26</v>
+      </c>
+      <c r="AB73">
+        <v>27</v>
+      </c>
+      <c r="AC73">
+        <v>28</v>
+      </c>
+      <c r="AD73">
+        <v>29</v>
+      </c>
+      <c r="AE73">
+        <v>30</v>
+      </c>
+      <c r="AF73">
+        <v>31</v>
+      </c>
+      <c r="AG73">
+        <v>32</v>
+      </c>
+      <c r="AH73">
+        <v>33</v>
+      </c>
+      <c r="AI73">
+        <v>34</v>
+      </c>
+      <c r="AJ73">
+        <v>35</v>
+      </c>
+      <c r="AK73">
+        <v>36</v>
+      </c>
+      <c r="AL73">
+        <v>37</v>
+      </c>
+      <c r="AM73">
+        <v>38</v>
+      </c>
+      <c r="AN73">
+        <v>39</v>
+      </c>
+      <c r="AO73">
+        <v>40</v>
+      </c>
+      <c r="AP73">
+        <v>41</v>
+      </c>
+      <c r="AQ73">
+        <v>42</v>
+      </c>
+      <c r="AR73">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="D74"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AA5:AF9"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AB42:AB43"/>
+  <mergeCells count="2">
     <mergeCell ref="AB50:AB51"/>
     <mergeCell ref="AB58:AB59"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D42:D43"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:Y7">
     <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="0">
